--- a/sem1/СО-ИП-21-1.xlsx
+++ b/sem1/СО-ИП-21-1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C5A21-1EB6-1D4F-A823-1345953150DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B522DC7-EBFF-2B4D-9ECF-9EA1CBC2AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -122,6 +123,15 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Роттэ</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
   </si>
 </sst>
 </file>
@@ -151,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,11 +184,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +216,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +550,7 @@
     <col min="4" max="7" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +569,11 @@
       <c r="F1" s="7">
         <v>45180</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="7">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -563,8 +592,11 @@
       <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -583,8 +615,11 @@
       <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -603,8 +638,11 @@
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -623,8 +661,11 @@
       <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -643,8 +684,11 @@
       <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -663,8 +707,11 @@
       <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -683,8 +730,11 @@
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -703,8 +753,11 @@
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -723,8 +776,11 @@
       <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -743,8 +799,11 @@
       <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -763,8 +822,11 @@
       <c r="F12" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -783,8 +845,11 @@
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -803,8 +868,11 @@
       <c r="F14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -823,8 +891,11 @@
       <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -843,8 +914,11 @@
       <c r="F16" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -863,8 +937,11 @@
       <c r="F17" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -883,8 +960,11 @@
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -903,8 +983,11 @@
       <c r="F19" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -923,8 +1006,11 @@
       <c r="F20" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -943,8 +1029,11 @@
       <c r="F21" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -963,8 +1052,11 @@
       <c r="F22" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -983,8 +1075,11 @@
       <c r="F23" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1003,8 +1098,11 @@
       <c r="F24" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1023,6 +1121,435 @@
       <c r="F25" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="G25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52A886-8315-A84A-9CF1-CA34D72074B3}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/СО-ИП-21-1.xlsx
+++ b/sem1/СО-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B522DC7-EBFF-2B4D-9ECF-9EA1CBC2AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3235026-17AA-4047-A976-430449208F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,9 +221,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +557,7 @@
     <col min="4" max="7" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +579,11 @@
       <c r="G1" s="7">
         <v>45183</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="11">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -595,8 +605,11 @@
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -618,8 +631,11 @@
       <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -641,8 +657,11 @@
       <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -664,8 +683,11 @@
       <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -687,8 +709,11 @@
       <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -710,8 +735,11 @@
       <c r="G7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -733,8 +761,11 @@
       <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -756,8 +787,11 @@
       <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -779,8 +813,11 @@
       <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -802,31 +839,18 @@
       <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -848,8 +872,11 @@
       <c r="G13" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -871,8 +898,11 @@
       <c r="G14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -894,8 +924,11 @@
       <c r="G15" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -917,8 +950,11 @@
       <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -940,8 +976,11 @@
       <c r="G17" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -963,8 +1002,11 @@
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -986,8 +1028,11 @@
       <c r="G19" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1009,8 +1054,11 @@
       <c r="G20" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1032,8 +1080,11 @@
       <c r="G21" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1055,8 +1106,11 @@
       <c r="G22" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1078,8 +1132,11 @@
       <c r="G23" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1101,8 +1158,11 @@
       <c r="G24" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1124,8 +1184,11 @@
       <c r="G25" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1146,6 +1209,9 @@
       </c>
       <c r="G26" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1157,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52A886-8315-A84A-9CF1-CA34D72074B3}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A5" zoomScale="172" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1246,9 @@
       <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>

--- a/sem1/СО-ИП-21-1.xlsx
+++ b/sem1/СО-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3235026-17AA-4047-A976-430449208F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13188375-9149-4747-8D71-8A2E42E1DF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Роттэ Артем</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,10 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,20 +544,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,17 +577,25 @@
       <c r="E1" s="4">
         <v>45175</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="4">
         <v>45180</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="4">
         <v>45183</v>
       </c>
       <c r="H1" s="11">
         <v>45189</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="4">
+        <v>45190</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -599,17 +611,25 @@
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -625,17 +645,25 @@
       <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -651,17 +679,25 @@
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -677,17 +713,25 @@
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -703,17 +747,25 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -729,17 +781,25 @@
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -755,17 +815,25 @@
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -781,17 +849,25 @@
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -807,17 +883,25 @@
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -833,29 +917,64 @@
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>26</v>
@@ -866,74 +985,98 @@
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>26</v>
@@ -944,74 +1087,98 @@
       <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>26</v>
@@ -1022,22 +1189,30 @@
       <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>26</v>
@@ -1048,22 +1223,30 @@
       <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>26</v>
@@ -1074,22 +1257,30 @@
       <c r="E21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>26</v>
@@ -1100,22 +1291,30 @@
       <c r="E22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>26</v>
@@ -1126,22 +1325,30 @@
       <c r="E23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>26</v>
@@ -1152,67 +1359,57 @@
       <c r="E24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="G25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1223,14 +1420,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52A886-8315-A84A-9CF1-CA34D72074B3}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="172" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="172" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1349,7 +1547,9 @@
       <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
@@ -1479,8 +1679,12 @@
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
@@ -1567,8 +1771,12 @@
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
@@ -1585,7 +1793,9 @@
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
